--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_311__Reeval_Taguchi_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_311__Reeval_Taguchi_Modell_1.3.xlsx
@@ -5420,13 +5420,13 @@
                   <c:v>87.79766845703125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>92.62510681152344</c:v>
+                  <c:v>92.62509155273438</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>96.55876159667969</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54.7030029296875</c:v>
+                  <c:v>54.70300674438477</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>43.51456451416016</c:v>
@@ -5477,16 +5477,16 @@
                   <c:v>78.35317993164062</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>55.56081390380859</c:v>
+                  <c:v>55.56082153320312</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>64.08961486816406</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>54.1923828125</c:v>
+                  <c:v>54.19237899780273</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>90.02229309082031</c:v>
+                  <c:v>90.02227783203125</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>96.85641479492188</c:v>
@@ -5498,16 +5498,16 @@
                   <c:v>88.67073059082031</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>97.16529846191406</c:v>
+                  <c:v>97.165283203125</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>67.42642974853516</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>98.07162475585938</c:v>
+                  <c:v>98.07160949707031</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>52.82810974121094</c:v>
+                  <c:v>52.8281135559082</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>79.45913696289062</c:v>
@@ -5519,13 +5519,13 @@
                   <c:v>84.85870361328125</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>81.88059997558594</c:v>
+                  <c:v>81.880615234375</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>39.45389556884766</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>88.20051574707031</c:v>
+                  <c:v>88.20050048828125</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>96.11601257324219</c:v>
@@ -5537,10 +5537,10 @@
                   <c:v>94.06584167480469</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>37.38950729370117</c:v>
+                  <c:v>37.38951110839844</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>86.23681640625</c:v>
+                  <c:v>86.23680114746094</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>84.94461059570312</c:v>
@@ -5549,19 +5549,19 @@
                   <c:v>78.63868713378906</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>92.38034057617188</c:v>
+                  <c:v>92.38035583496094</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>96.91426086425781</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>82.90476989746094</c:v>
+                  <c:v>82.90475463867188</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>96.58419799804688</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>97.35972595214844</c:v>
+                  <c:v>97.3597412109375</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>82.991455078125</c:v>
@@ -5570,7 +5570,7 @@
                   <c:v>86.53237915039062</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>97.45372009277344</c:v>
+                  <c:v>97.4537353515625</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>75.18699645996094</c:v>
@@ -5588,13 +5588,13 @@
                   <c:v>76.65460205078125</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>53.25325012207031</c:v>
+                  <c:v>53.25325393676758</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>96.311279296875</c:v>
+                  <c:v>96.31126403808594</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>47.62442016601562</c:v>
+                  <c:v>47.62442398071289</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>85.67355346679688</c:v>
@@ -5615,22 +5615,22 @@
                   <c:v>95.79426574707031</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>90.63577270507812</c:v>
+                  <c:v>90.63575744628906</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>97.55844116210938</c:v>
+                  <c:v>97.55845642089844</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>61.86700057983398</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>82.79434204101562</c:v>
+                  <c:v>82.79432678222656</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>68.81466674804688</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>82.31060791015625</c:v>
+                  <c:v>82.31059265136719</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>97.56434631347656</c:v>
@@ -5648,10 +5648,10 @@
                   <c:v>88.574462890625</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>58.36020660400391</c:v>
+                  <c:v>58.36019897460938</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>83.23536682128906</c:v>
+                  <c:v>83.2353515625</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>62.36422348022461</c:v>
@@ -5681,7 +5681,7 @@
                   <c:v>80.52525329589844</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>81.29426574707031</c:v>
+                  <c:v>81.29425048828125</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>66.88496398925781</c:v>
@@ -6411,7 +6411,7 @@
         <v>93.9058</v>
       </c>
       <c r="F3">
-        <v>92.62510681152344</v>
+        <v>92.62509155273438</v>
       </c>
       <c r="G3">
         <v>104</v>
@@ -6475,7 +6475,7 @@
         <v>56.1604</v>
       </c>
       <c r="F5">
-        <v>54.7030029296875</v>
+        <v>54.70300674438477</v>
       </c>
       <c r="G5">
         <v>104</v>
@@ -6851,7 +6851,7 @@
         <v>57.9449</v>
       </c>
       <c r="F22">
-        <v>55.56081390380859</v>
+        <v>55.56082153320312</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>52.4045</v>
       </c>
       <c r="F24">
-        <v>54.1923828125</v>
+        <v>54.19237899780273</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6911,7 +6911,7 @@
         <v>89.67829999999999</v>
       </c>
       <c r="F25">
-        <v>90.02229309082031</v>
+        <v>90.02227783203125</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6991,7 +6991,7 @@
         <v>97.328</v>
       </c>
       <c r="F29">
-        <v>97.16529846191406</v>
+        <v>97.165283203125</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7031,7 +7031,7 @@
         <v>97.9363</v>
       </c>
       <c r="F31">
-        <v>98.07162475585938</v>
+        <v>98.07160949707031</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7051,7 +7051,7 @@
         <v>53.6367</v>
       </c>
       <c r="F32">
-        <v>52.82810974121094</v>
+        <v>52.8281135559082</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7131,7 +7131,7 @@
         <v>83.9868</v>
       </c>
       <c r="F36">
-        <v>81.88059997558594</v>
+        <v>81.880615234375</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>89.67829999999999</v>
       </c>
       <c r="F38">
-        <v>88.20051574707031</v>
+        <v>88.20050048828125</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>38.6711</v>
       </c>
       <c r="F42">
-        <v>37.38950729370117</v>
+        <v>37.38951110839844</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>86.58159999999999</v>
       </c>
       <c r="F43">
-        <v>86.23681640625</v>
+        <v>86.23680114746094</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>90.6163</v>
       </c>
       <c r="F46">
-        <v>92.38034057617188</v>
+        <v>92.38035583496094</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>82.63800000000001</v>
       </c>
       <c r="F48">
-        <v>82.90476989746094</v>
+        <v>82.90475463867188</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>97.4067</v>
       </c>
       <c r="F50">
-        <v>97.35972595214844</v>
+        <v>97.3597412109375</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>97.3824</v>
       </c>
       <c r="F53">
-        <v>97.45372009277344</v>
+        <v>97.4537353515625</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>51.2359</v>
       </c>
       <c r="F59">
-        <v>53.25325012207031</v>
+        <v>53.25325393676758</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>97.3549</v>
       </c>
       <c r="F60">
-        <v>96.311279296875</v>
+        <v>96.31126403808594</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>46.5133</v>
       </c>
       <c r="F61">
-        <v>47.62442016601562</v>
+        <v>47.62442398071289</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>89.94750000000001</v>
       </c>
       <c r="F68">
-        <v>90.63577270507812</v>
+        <v>90.63575744628906</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>97.4348</v>
       </c>
       <c r="F69">
-        <v>97.55844116210938</v>
+        <v>97.55845642089844</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>81.9267</v>
       </c>
       <c r="F71">
-        <v>82.79434204101562</v>
+        <v>82.79432678222656</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>82.6225</v>
       </c>
       <c r="F73">
-        <v>82.31060791015625</v>
+        <v>82.31059265136719</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>57.9591</v>
       </c>
       <c r="F79">
-        <v>58.36020660400391</v>
+        <v>58.36019897460938</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>81.8498</v>
       </c>
       <c r="F80">
-        <v>83.23536682128906</v>
+        <v>83.2353515625</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>81.3472</v>
       </c>
       <c r="F90">
-        <v>81.29426574707031</v>
+        <v>81.29425048828125</v>
       </c>
     </row>
     <row r="91" spans="1:6">
